--- a/data/pca/factorExposure/factorExposure_2016-01-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-01-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02004426857111989</v>
+        <v>0.0191475310215763</v>
       </c>
       <c r="C2">
-        <v>0.04696616347641605</v>
+        <v>0.04153338160442682</v>
       </c>
       <c r="D2">
-        <v>0.1041817034332776</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1204323479960001</v>
+      </c>
+      <c r="E2">
+        <v>0.08842463997858591</v>
+      </c>
+      <c r="F2">
+        <v>0.006223158845242317</v>
+      </c>
+      <c r="G2">
+        <v>-0.02752949660343729</v>
+      </c>
+      <c r="H2">
+        <v>-0.1031916361383969</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02046009136614725</v>
+        <v>0.01209254282740551</v>
       </c>
       <c r="C3">
-        <v>0.07055417307976546</v>
+        <v>0.03843496993994285</v>
       </c>
       <c r="D3">
-        <v>0.1657880824799991</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.08956170154490371</v>
+      </c>
+      <c r="E3">
+        <v>0.09062365275830379</v>
+      </c>
+      <c r="F3">
+        <v>0.02629935490672775</v>
+      </c>
+      <c r="G3">
+        <v>-0.07649341353769212</v>
+      </c>
+      <c r="H3">
+        <v>-0.0566005692051137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05045080724039647</v>
+        <v>0.05542217386927971</v>
       </c>
       <c r="C4">
-        <v>0.05477439932175989</v>
+        <v>0.06835005127901229</v>
       </c>
       <c r="D4">
-        <v>0.1268272776563578</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1328732543155855</v>
+      </c>
+      <c r="E4">
+        <v>0.05328989571503689</v>
+      </c>
+      <c r="F4">
+        <v>0.01579524721060627</v>
+      </c>
+      <c r="G4">
+        <v>0.02221640917401303</v>
+      </c>
+      <c r="H4">
+        <v>0.03966350900212488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04172328414528824</v>
+        <v>0.04039016265243876</v>
       </c>
       <c r="C6">
-        <v>0.03069811712211803</v>
+        <v>0.03034338233827465</v>
       </c>
       <c r="D6">
-        <v>0.1198205476828596</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1259561032710135</v>
+      </c>
+      <c r="E6">
+        <v>0.04294269339061162</v>
+      </c>
+      <c r="F6">
+        <v>0.01601603769722197</v>
+      </c>
+      <c r="G6">
+        <v>-0.01159603270943751</v>
+      </c>
+      <c r="H6">
+        <v>-0.008103382074219566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02341107795699747</v>
+        <v>0.01766977488646816</v>
       </c>
       <c r="C7">
-        <v>0.02240098052986946</v>
+        <v>0.03303477349831086</v>
       </c>
       <c r="D7">
-        <v>0.0910983867849684</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09393099805769368</v>
+      </c>
+      <c r="E7">
+        <v>0.04414481413355473</v>
+      </c>
+      <c r="F7">
+        <v>0.01136204066695064</v>
+      </c>
+      <c r="G7">
+        <v>0.05185433706743577</v>
+      </c>
+      <c r="H7">
+        <v>-0.08353666581913177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.00620439659927408</v>
+        <v>0.007280856059267706</v>
       </c>
       <c r="C8">
-        <v>0.04666202766402087</v>
+        <v>0.04198612382690922</v>
       </c>
       <c r="D8">
-        <v>0.07343435630294816</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.08011974334793033</v>
+      </c>
+      <c r="E8">
+        <v>0.04230968242855054</v>
+      </c>
+      <c r="F8">
+        <v>0.03414787263357923</v>
+      </c>
+      <c r="G8">
+        <v>0.004478796458577163</v>
+      </c>
+      <c r="H8">
+        <v>-0.03632765890743509</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0383066040621897</v>
+        <v>0.04225409316857166</v>
       </c>
       <c r="C9">
-        <v>0.04127491074976432</v>
+        <v>0.05739174424407813</v>
       </c>
       <c r="D9">
-        <v>0.09823234754974422</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1113656881263352</v>
+      </c>
+      <c r="E9">
+        <v>0.04334018750879075</v>
+      </c>
+      <c r="F9">
+        <v>-0.002591940861891478</v>
+      </c>
+      <c r="G9">
+        <v>0.030598641272331</v>
+      </c>
+      <c r="H9">
+        <v>0.003472195102706416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.09055519362043794</v>
+        <v>0.1248525401569831</v>
       </c>
       <c r="C10">
-        <v>-0.1942592033713756</v>
+        <v>-0.1925058092825366</v>
       </c>
       <c r="D10">
-        <v>0.01276085831761365</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.005003955212932925</v>
+      </c>
+      <c r="E10">
+        <v>0.05589923542670253</v>
+      </c>
+      <c r="F10">
+        <v>0.01416068656743531</v>
+      </c>
+      <c r="G10">
+        <v>0.0296454369483093</v>
+      </c>
+      <c r="H10">
+        <v>0.0187619545939118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03550479363413556</v>
+        <v>0.02964702753228007</v>
       </c>
       <c r="C11">
-        <v>0.04091924812965624</v>
+        <v>0.04329355497990246</v>
       </c>
       <c r="D11">
-        <v>0.06526380013620778</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.0602464131948296</v>
+      </c>
+      <c r="E11">
+        <v>0.00690106672735446</v>
+      </c>
+      <c r="F11">
+        <v>0.003022199430545277</v>
+      </c>
+      <c r="G11">
+        <v>0.02771817880445351</v>
+      </c>
+      <c r="H11">
+        <v>-0.04615729150801807</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04026050528810293</v>
+        <v>0.03361299573992953</v>
       </c>
       <c r="C12">
-        <v>0.03864891396665845</v>
+        <v>0.04339406773544409</v>
       </c>
       <c r="D12">
-        <v>0.05825421720442759</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05749710255845395</v>
+      </c>
+      <c r="E12">
+        <v>0.01818411493419887</v>
+      </c>
+      <c r="F12">
+        <v>-0.002479410270574362</v>
+      </c>
+      <c r="G12">
+        <v>0.02776352319698591</v>
+      </c>
+      <c r="H12">
+        <v>-0.05347614869087413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01239387966792189</v>
+        <v>0.01923679054969132</v>
       </c>
       <c r="C13">
-        <v>0.03782812321927406</v>
+        <v>0.04005157901015463</v>
       </c>
       <c r="D13">
-        <v>0.130504637812822</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1405884653149211</v>
+      </c>
+      <c r="E13">
+        <v>0.07960750895701696</v>
+      </c>
+      <c r="F13">
+        <v>0.02140806932659124</v>
+      </c>
+      <c r="G13">
+        <v>0.03513135980425026</v>
+      </c>
+      <c r="H13">
+        <v>-0.0753608958746961</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01233086413133743</v>
+        <v>0.007687057422806584</v>
       </c>
       <c r="C14">
-        <v>0.01956589190650835</v>
+        <v>0.02543216692588345</v>
       </c>
       <c r="D14">
-        <v>0.08314481860058423</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.08612841214215357</v>
+      </c>
+      <c r="E14">
+        <v>0.04548519042022231</v>
+      </c>
+      <c r="F14">
+        <v>-0.01377162760255823</v>
+      </c>
+      <c r="G14">
+        <v>0.02987707073990584</v>
+      </c>
+      <c r="H14">
+        <v>-0.07994011746682447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001500342956552804</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.006906033144555309</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.02318317817863713</v>
+      </c>
+      <c r="E15">
+        <v>0.005201121332953299</v>
+      </c>
+      <c r="F15">
+        <v>-0.002714700771322634</v>
+      </c>
+      <c r="G15">
+        <v>-0.002582337013171502</v>
+      </c>
+      <c r="H15">
+        <v>-0.01271515560648576</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03666302249335201</v>
+        <v>0.03085029641419037</v>
       </c>
       <c r="C16">
-        <v>0.04653630904600296</v>
+        <v>0.04587740001632031</v>
       </c>
       <c r="D16">
-        <v>0.06717560743235634</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06289985752547311</v>
+      </c>
+      <c r="E16">
+        <v>0.01957024117716343</v>
+      </c>
+      <c r="F16">
+        <v>-0.01134878335002291</v>
+      </c>
+      <c r="G16">
+        <v>0.02510421936271418</v>
+      </c>
+      <c r="H16">
+        <v>-0.05182822642340918</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01221522879957096</v>
+        <v>0.01180506639959309</v>
       </c>
       <c r="C19">
-        <v>0.03358878307182014</v>
+        <v>0.03211297522831405</v>
       </c>
       <c r="D19">
-        <v>0.1748846359392802</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1351189142638393</v>
+      </c>
+      <c r="E19">
+        <v>0.07127415033910518</v>
+      </c>
+      <c r="F19">
+        <v>-0.02941453748677413</v>
+      </c>
+      <c r="G19">
+        <v>0.002372226386825489</v>
+      </c>
+      <c r="H19">
+        <v>-0.04844471771173291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01864324883513148</v>
+        <v>0.01574655839566038</v>
       </c>
       <c r="C20">
-        <v>0.03506779807093783</v>
+        <v>0.03774559583571429</v>
       </c>
       <c r="D20">
-        <v>0.09500307274443207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.09568661479092749</v>
+      </c>
+      <c r="E20">
+        <v>0.06324518721840841</v>
+      </c>
+      <c r="F20">
+        <v>-0.007181003365627358</v>
+      </c>
+      <c r="G20">
+        <v>0.01838554789527441</v>
+      </c>
+      <c r="H20">
+        <v>-0.04414852050329671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01120735223316049</v>
+        <v>0.0146522308152907</v>
       </c>
       <c r="C21">
-        <v>0.02439192594652027</v>
+        <v>0.03861566349404199</v>
       </c>
       <c r="D21">
-        <v>0.1319610476547438</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1345551772183381</v>
+      </c>
+      <c r="E21">
+        <v>0.1013039104281936</v>
+      </c>
+      <c r="F21">
+        <v>-0.01566365159964368</v>
+      </c>
+      <c r="G21">
+        <v>0.07364532013070539</v>
+      </c>
+      <c r="H21">
+        <v>-0.07588985554231796</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.001735236413029403</v>
+        <v>0.005714038086799151</v>
       </c>
       <c r="C22">
-        <v>0.01153771433420516</v>
+        <v>0.03559476879509611</v>
       </c>
       <c r="D22">
-        <v>0.04770533946462787</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.114419238122251</v>
+      </c>
+      <c r="E22">
+        <v>0.03076568876317901</v>
+      </c>
+      <c r="F22">
+        <v>0.07409346741745738</v>
+      </c>
+      <c r="G22">
+        <v>-0.0549110687094873</v>
+      </c>
+      <c r="H22">
+        <v>0.009296702366298829</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.001687360548374171</v>
+        <v>0.005812629350417226</v>
       </c>
       <c r="C23">
-        <v>0.01136047714754756</v>
+        <v>0.03596468913886063</v>
       </c>
       <c r="D23">
-        <v>0.04740053730534183</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1137098090865156</v>
+      </c>
+      <c r="E23">
+        <v>0.0310285471398796</v>
+      </c>
+      <c r="F23">
+        <v>0.07405922903564983</v>
+      </c>
+      <c r="G23">
+        <v>-0.05420625134817423</v>
+      </c>
+      <c r="H23">
+        <v>0.009736027129525664</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03501918571967139</v>
+        <v>0.03200639288304633</v>
       </c>
       <c r="C24">
-        <v>0.04675527336770475</v>
+        <v>0.05392548677777027</v>
       </c>
       <c r="D24">
-        <v>0.06681895616445556</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06699803025281327</v>
+      </c>
+      <c r="E24">
+        <v>0.0248686743023478</v>
+      </c>
+      <c r="F24">
+        <v>-0.00912832765740043</v>
+      </c>
+      <c r="G24">
+        <v>0.04187807181908155</v>
+      </c>
+      <c r="H24">
+        <v>-0.05833417568773842</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.04278739620341942</v>
+        <v>0.03708571703012528</v>
       </c>
       <c r="C25">
-        <v>0.04909868939658818</v>
+        <v>0.05246628598801208</v>
       </c>
       <c r="D25">
-        <v>0.06617931101260674</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.0615016175927012</v>
+      </c>
+      <c r="E25">
+        <v>0.02187635662737637</v>
+      </c>
+      <c r="F25">
+        <v>0.004749266152591984</v>
+      </c>
+      <c r="G25">
+        <v>0.03785597885379962</v>
+      </c>
+      <c r="H25">
+        <v>-0.04438949871048183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02186415404723687</v>
+        <v>0.02038144693811985</v>
       </c>
       <c r="C26">
-        <v>0.0124076780513787</v>
+        <v>0.0194198131368933</v>
       </c>
       <c r="D26">
-        <v>0.0598663655710366</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06599029827665413</v>
+      </c>
+      <c r="E26">
+        <v>0.0321786984829853</v>
+      </c>
+      <c r="F26">
+        <v>-0.005335376589746624</v>
+      </c>
+      <c r="G26">
+        <v>0.01779819070903706</v>
+      </c>
+      <c r="H26">
+        <v>-0.05177585469875308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1221169379663086</v>
+        <v>0.1747354300191171</v>
       </c>
       <c r="C28">
-        <v>-0.2804830761446547</v>
+        <v>-0.2579476005685762</v>
       </c>
       <c r="D28">
-        <v>-0.02320005444346999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.007619288194873858</v>
+      </c>
+      <c r="E28">
+        <v>0.07512141816856394</v>
+      </c>
+      <c r="F28">
+        <v>0.005359503335525023</v>
+      </c>
+      <c r="G28">
+        <v>0.06715006112175231</v>
+      </c>
+      <c r="H28">
+        <v>0.01678814385837233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.006349777847463511</v>
+        <v>0.007170087610701118</v>
       </c>
       <c r="C29">
-        <v>0.0175053942655434</v>
+        <v>0.02297884577123649</v>
       </c>
       <c r="D29">
-        <v>0.06550105217667181</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.07834109519619262</v>
+      </c>
+      <c r="E29">
+        <v>0.04933670074109005</v>
+      </c>
+      <c r="F29">
+        <v>0.0004629282214143427</v>
+      </c>
+      <c r="G29">
+        <v>0.04176581117339295</v>
+      </c>
+      <c r="H29">
+        <v>-0.07311777680021438</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04135452740838977</v>
+        <v>0.04367526595094261</v>
       </c>
       <c r="C30">
-        <v>0.03497382309195265</v>
+        <v>0.0578896960412967</v>
       </c>
       <c r="D30">
-        <v>0.1492571699909219</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1698955875777725</v>
+      </c>
+      <c r="E30">
+        <v>0.03105799359682003</v>
+      </c>
+      <c r="F30">
+        <v>-0.001702924667802374</v>
+      </c>
+      <c r="G30">
+        <v>-0.01960743855255691</v>
+      </c>
+      <c r="H30">
+        <v>-0.01742610117373333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06414994990819099</v>
+        <v>0.05859448337025333</v>
       </c>
       <c r="C31">
-        <v>0.05199306693251046</v>
+        <v>0.07179178868974362</v>
       </c>
       <c r="D31">
-        <v>0.06618339574850028</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05441115856463951</v>
+      </c>
+      <c r="E31">
+        <v>0.04858746439911042</v>
+      </c>
+      <c r="F31">
+        <v>0.03790351495263374</v>
+      </c>
+      <c r="G31">
+        <v>0.02795673266070513</v>
+      </c>
+      <c r="H31">
+        <v>-0.02219555248262569</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.002254429634958185</v>
+        <v>0.01086394104641233</v>
       </c>
       <c r="C32">
-        <v>0.003700064480533768</v>
+        <v>0.02106541548976849</v>
       </c>
       <c r="D32">
-        <v>0.07705441557376362</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.09640350704831196</v>
+      </c>
+      <c r="E32">
+        <v>0.09362816985343254</v>
+      </c>
+      <c r="F32">
+        <v>-0.002496340442994503</v>
+      </c>
+      <c r="G32">
+        <v>0.06869477228676317</v>
+      </c>
+      <c r="H32">
+        <v>-0.05870196761084188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02712038077381717</v>
+        <v>0.02510999094119884</v>
       </c>
       <c r="C33">
-        <v>0.03181003976227965</v>
+        <v>0.04525503464511469</v>
       </c>
       <c r="D33">
-        <v>0.1362919529158857</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1327261316141026</v>
+      </c>
+      <c r="E33">
+        <v>0.05548447287501777</v>
+      </c>
+      <c r="F33">
+        <v>0.01325561627089621</v>
+      </c>
+      <c r="G33">
+        <v>0.03234928211483151</v>
+      </c>
+      <c r="H33">
+        <v>-0.05173992385664394</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03530040843518891</v>
+        <v>0.03084264569364485</v>
       </c>
       <c r="C34">
-        <v>0.05749300135966535</v>
+        <v>0.05969365379901365</v>
       </c>
       <c r="D34">
-        <v>0.06567847212211371</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05937044610477359</v>
+      </c>
+      <c r="E34">
+        <v>0.002644072674156926</v>
+      </c>
+      <c r="F34">
+        <v>-0.007735327107954469</v>
+      </c>
+      <c r="G34">
+        <v>0.0421534952291709</v>
+      </c>
+      <c r="H34">
+        <v>-0.06097678250869897</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0004331722227852363</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0002049760713005143</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.002512862037749261</v>
+      </c>
+      <c r="E35">
+        <v>0.0003668955686668856</v>
+      </c>
+      <c r="F35">
+        <v>0.0002814322920369301</v>
+      </c>
+      <c r="G35">
+        <v>0.0007763109655608251</v>
+      </c>
+      <c r="H35">
+        <v>-0.002411872707347682</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0180463927846311</v>
+        <v>0.01756530668592723</v>
       </c>
       <c r="C36">
-        <v>0.006780929111411181</v>
+        <v>0.01681878930031042</v>
       </c>
       <c r="D36">
-        <v>0.07409730947246164</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07695366553908266</v>
+      </c>
+      <c r="E36">
+        <v>0.04385158785953238</v>
+      </c>
+      <c r="F36">
+        <v>-0.004807470770159447</v>
+      </c>
+      <c r="G36">
+        <v>0.02958546482126123</v>
+      </c>
+      <c r="H36">
+        <v>-0.04052247360703568</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02896277990957489</v>
+        <v>0.02414482512095002</v>
       </c>
       <c r="C38">
-        <v>0.02360705000043222</v>
+        <v>0.02510190817398946</v>
       </c>
       <c r="D38">
-        <v>0.05557891333076283</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.06177179288111215</v>
+      </c>
+      <c r="E38">
+        <v>0.04090709599312774</v>
+      </c>
+      <c r="F38">
+        <v>-0.003618694337403497</v>
+      </c>
+      <c r="G38">
+        <v>-0.02636391725585051</v>
+      </c>
+      <c r="H38">
+        <v>-0.0347998768798403</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04444793704477765</v>
+        <v>0.03910756734281957</v>
       </c>
       <c r="C39">
-        <v>0.05749877479506998</v>
+        <v>0.06428343642036904</v>
       </c>
       <c r="D39">
-        <v>0.08256519720064377</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.099194915409341</v>
+      </c>
+      <c r="E39">
+        <v>0.02206312038533762</v>
+      </c>
+      <c r="F39">
+        <v>-0.02440174382344563</v>
+      </c>
+      <c r="G39">
+        <v>0.02769595740863363</v>
+      </c>
+      <c r="H39">
+        <v>-0.07539467696719304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01640513316472755</v>
+        <v>0.01517239600819376</v>
       </c>
       <c r="C40">
-        <v>0.05012767930132545</v>
+        <v>0.04172036742448487</v>
       </c>
       <c r="D40">
-        <v>0.08449142081778081</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.09652042611323663</v>
+      </c>
+      <c r="E40">
+        <v>0.08760899142598323</v>
+      </c>
+      <c r="F40">
+        <v>0.04860033975556586</v>
+      </c>
+      <c r="G40">
+        <v>0.02000003104458689</v>
+      </c>
+      <c r="H40">
+        <v>-0.1394929372913452</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02356082970912553</v>
+        <v>0.02218265854626406</v>
       </c>
       <c r="C41">
-        <v>-0.0002636774433014697</v>
+        <v>0.01022001744283464</v>
       </c>
       <c r="D41">
-        <v>0.08141777622813447</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.0625327251819692</v>
+      </c>
+      <c r="E41">
+        <v>0.0585880626543075</v>
+      </c>
+      <c r="F41">
+        <v>-0.005056567883920673</v>
+      </c>
+      <c r="G41">
+        <v>0.015796982991893</v>
+      </c>
+      <c r="H41">
+        <v>-0.0390864758240636</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.03511668681730698</v>
+        <v>0.02606389946171003</v>
       </c>
       <c r="C43">
-        <v>0.01372027979185203</v>
+        <v>0.02205418169134446</v>
       </c>
       <c r="D43">
-        <v>0.1229195546084009</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.09435467421722703</v>
+      </c>
+      <c r="E43">
+        <v>0.04596846760188025</v>
+      </c>
+      <c r="F43">
+        <v>0.001397196278464409</v>
+      </c>
+      <c r="G43">
+        <v>0.02263853512469377</v>
+      </c>
+      <c r="H43">
+        <v>-0.05439787972658407</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01337022543032046</v>
+        <v>0.0176351934855416</v>
       </c>
       <c r="C44">
-        <v>0.04670079419660022</v>
+        <v>0.04352937993852408</v>
       </c>
       <c r="D44">
-        <v>0.07924197634873636</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09418183487655502</v>
+      </c>
+      <c r="E44">
+        <v>0.07892742560348542</v>
+      </c>
+      <c r="F44">
+        <v>-0.007887650235999704</v>
+      </c>
+      <c r="G44">
+        <v>0.03563749417155266</v>
+      </c>
+      <c r="H44">
+        <v>-0.05514594424060609</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01879985767404968</v>
+        <v>0.01550023675080259</v>
       </c>
       <c r="C46">
-        <v>0.0166365701550817</v>
+        <v>0.02865526026505782</v>
       </c>
       <c r="D46">
-        <v>0.06957698814734806</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08206062931035717</v>
+      </c>
+      <c r="E46">
+        <v>0.05079580907084393</v>
+      </c>
+      <c r="F46">
+        <v>-0.02018207995390102</v>
+      </c>
+      <c r="G46">
+        <v>0.05126757255649082</v>
+      </c>
+      <c r="H46">
+        <v>-0.07477398842302367</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09281552726264058</v>
+        <v>0.08881372198197836</v>
       </c>
       <c r="C47">
-        <v>0.06956533815436135</v>
+        <v>0.09030593496817971</v>
       </c>
       <c r="D47">
-        <v>0.03797154860177701</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03288442449657102</v>
+      </c>
+      <c r="E47">
+        <v>0.03981616551165717</v>
+      </c>
+      <c r="F47">
+        <v>0.02437318354658481</v>
+      </c>
+      <c r="G47">
+        <v>0.05328760565681995</v>
+      </c>
+      <c r="H47">
+        <v>0.01253396189722531</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02079954203412311</v>
+        <v>0.01927570851324585</v>
       </c>
       <c r="C48">
-        <v>0.008333014758853815</v>
+        <v>0.01990024177922073</v>
       </c>
       <c r="D48">
-        <v>0.07516448714260322</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07890853731463791</v>
+      </c>
+      <c r="E48">
+        <v>0.05675555039895912</v>
+      </c>
+      <c r="F48">
+        <v>-0.01848264497966735</v>
+      </c>
+      <c r="G48">
+        <v>0.03105700341479664</v>
+      </c>
+      <c r="H48">
+        <v>-0.04226120516222507</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.07555781877230493</v>
+        <v>0.0644855853137834</v>
       </c>
       <c r="C50">
-        <v>0.06939039765269013</v>
+        <v>0.07173214766654722</v>
       </c>
       <c r="D50">
-        <v>0.06229682789196396</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05809753302374247</v>
+      </c>
+      <c r="E50">
+        <v>0.05036264962167623</v>
+      </c>
+      <c r="F50">
+        <v>0.04040160733397426</v>
+      </c>
+      <c r="G50">
+        <v>0.007079924718153481</v>
+      </c>
+      <c r="H50">
+        <v>-0.03081405869737484</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01130037439949283</v>
+        <v>0.00989766481424108</v>
       </c>
       <c r="C51">
-        <v>0.02754939715502101</v>
+        <v>0.02085608054159263</v>
       </c>
       <c r="D51">
-        <v>0.09355034066808357</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.09271883032507819</v>
+      </c>
+      <c r="E51">
+        <v>0.03562936784918143</v>
+      </c>
+      <c r="F51">
+        <v>-0.007486466618607334</v>
+      </c>
+      <c r="G51">
+        <v>0.01558419990495547</v>
+      </c>
+      <c r="H51">
+        <v>-0.0730350741017016</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.0788887648788105</v>
+        <v>0.09166930100690095</v>
       </c>
       <c r="C53">
-        <v>0.0779586525744881</v>
+        <v>0.09517593589247035</v>
       </c>
       <c r="D53">
-        <v>0.01720332809944639</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.0002908049294748913</v>
+      </c>
+      <c r="E53">
+        <v>0.1013481159848108</v>
+      </c>
+      <c r="F53">
+        <v>0.02566931620617869</v>
+      </c>
+      <c r="G53">
+        <v>0.07568166923477002</v>
+      </c>
+      <c r="H53">
+        <v>0.05956925113511229</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.03367332876869878</v>
+        <v>0.0275006251693547</v>
       </c>
       <c r="C54">
-        <v>0.02697253839254841</v>
+        <v>0.03471315534678416</v>
       </c>
       <c r="D54">
-        <v>0.0814448352462244</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08794038428614323</v>
+      </c>
+      <c r="E54">
+        <v>0.05199169202757382</v>
+      </c>
+      <c r="F54">
+        <v>-0.0222558551833832</v>
+      </c>
+      <c r="G54">
+        <v>0.03295866076156154</v>
+      </c>
+      <c r="H54">
+        <v>-0.09840391404366419</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08569086458362661</v>
+        <v>0.08807751280011773</v>
       </c>
       <c r="C55">
-        <v>0.06147275725793592</v>
+        <v>0.07913073347104346</v>
       </c>
       <c r="D55">
-        <v>0.00364280117673913</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01301825557828474</v>
+      </c>
+      <c r="E55">
+        <v>0.06306079106444913</v>
+      </c>
+      <c r="F55">
+        <v>0.03175362974952935</v>
+      </c>
+      <c r="G55">
+        <v>0.02657436162551069</v>
+      </c>
+      <c r="H55">
+        <v>0.03934946263452094</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1391181152090663</v>
+        <v>0.1406721508309207</v>
       </c>
       <c r="C56">
-        <v>0.09015206077092282</v>
+        <v>0.1175869187090634</v>
       </c>
       <c r="D56">
-        <v>0.003522072420215733</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01885508082492632</v>
+      </c>
+      <c r="E56">
+        <v>0.05572636832325324</v>
+      </c>
+      <c r="F56">
+        <v>0.0172723754022467</v>
+      </c>
+      <c r="G56">
+        <v>0.04571012088784099</v>
+      </c>
+      <c r="H56">
+        <v>0.04787916116810922</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.041185781371152</v>
+        <v>0.04005728093343752</v>
       </c>
       <c r="C58">
-        <v>-0.006992795313047954</v>
+        <v>0.02558205897331038</v>
       </c>
       <c r="D58">
-        <v>0.4348385527992552</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3771448647388804</v>
+      </c>
+      <c r="E58">
+        <v>0.2149710361632248</v>
+      </c>
+      <c r="F58">
+        <v>0.1099043251254622</v>
+      </c>
+      <c r="G58">
+        <v>-0.4593466701402286</v>
+      </c>
+      <c r="H58">
+        <v>0.2654703402202419</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1358122380650378</v>
+        <v>0.1634785401251767</v>
       </c>
       <c r="C59">
-        <v>-0.208102009855154</v>
+        <v>-0.18044322238153</v>
       </c>
       <c r="D59">
-        <v>0.02286407618900217</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.04281408979377083</v>
+      </c>
+      <c r="E59">
+        <v>0.0134037618402447</v>
+      </c>
+      <c r="F59">
+        <v>-0.03217697112086985</v>
+      </c>
+      <c r="G59">
+        <v>-0.01613457216886206</v>
+      </c>
+      <c r="H59">
+        <v>0.01831560727707724</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2565182572450347</v>
+        <v>0.234546237152618</v>
       </c>
       <c r="C60">
-        <v>0.09243484860983213</v>
+        <v>0.1015398962308462</v>
       </c>
       <c r="D60">
-        <v>0.1065525958476556</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1206314114283498</v>
+      </c>
+      <c r="E60">
+        <v>-0.361116944029434</v>
+      </c>
+      <c r="F60">
+        <v>0.1042546137518081</v>
+      </c>
+      <c r="G60">
+        <v>-0.02175275850381965</v>
+      </c>
+      <c r="H60">
+        <v>0.05542722856099064</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04765061476008218</v>
+        <v>0.04223738800698478</v>
       </c>
       <c r="C61">
-        <v>0.05109203048406086</v>
+        <v>0.05721903281638759</v>
       </c>
       <c r="D61">
-        <v>0.09395239146894424</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09123073539054988</v>
+      </c>
+      <c r="E61">
+        <v>0.02047921038835004</v>
+      </c>
+      <c r="F61">
+        <v>-0.01291048711495606</v>
+      </c>
+      <c r="G61">
+        <v>0.0419900245340124</v>
+      </c>
+      <c r="H61">
+        <v>-0.0631235057404073</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01475224271337013</v>
+        <v>0.01564531456002678</v>
       </c>
       <c r="C63">
-        <v>0.01768329079563517</v>
+        <v>0.02737170674718777</v>
       </c>
       <c r="D63">
-        <v>0.05599895988497013</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06943676643630563</v>
+      </c>
+      <c r="E63">
+        <v>0.05336818993058973</v>
+      </c>
+      <c r="F63">
+        <v>0.02201512186456532</v>
+      </c>
+      <c r="G63">
+        <v>0.01356585941806181</v>
+      </c>
+      <c r="H63">
+        <v>-0.03482451095097376</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05539075293907011</v>
+        <v>0.05597303108327357</v>
       </c>
       <c r="C64">
-        <v>0.05311682051642106</v>
+        <v>0.07101671918649294</v>
       </c>
       <c r="D64">
-        <v>0.06173152046057555</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05151342337089679</v>
+      </c>
+      <c r="E64">
+        <v>0.04279171926414626</v>
+      </c>
+      <c r="F64">
+        <v>-0.02495589271935745</v>
+      </c>
+      <c r="G64">
+        <v>0.06758451952699505</v>
+      </c>
+      <c r="H64">
+        <v>-0.02135794873414552</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.06029488960931331</v>
+        <v>0.05309468830231164</v>
       </c>
       <c r="C65">
-        <v>0.01763465407154002</v>
+        <v>0.02557213417197892</v>
       </c>
       <c r="D65">
-        <v>0.1044948690965388</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1114150097621475</v>
+      </c>
+      <c r="E65">
+        <v>0.01122138419553653</v>
+      </c>
+      <c r="F65">
+        <v>0.02540674214108189</v>
+      </c>
+      <c r="G65">
+        <v>-0.05017770246455452</v>
+      </c>
+      <c r="H65">
+        <v>0.01675329934216007</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04820730949887859</v>
+        <v>0.04602413976946662</v>
       </c>
       <c r="C66">
-        <v>0.05658513200192521</v>
+        <v>0.07047498009725683</v>
       </c>
       <c r="D66">
-        <v>0.1108000452093768</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1236202109161818</v>
+      </c>
+      <c r="E66">
+        <v>0.02263194345534894</v>
+      </c>
+      <c r="F66">
+        <v>-0.01434631665550565</v>
+      </c>
+      <c r="G66">
+        <v>0.01690535236543339</v>
+      </c>
+      <c r="H66">
+        <v>-0.05595033206055933</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.04981116841390368</v>
+        <v>0.04129991917611516</v>
       </c>
       <c r="C67">
-        <v>0.02739941530695319</v>
+        <v>0.02858188408124543</v>
       </c>
       <c r="D67">
-        <v>0.02828544730788246</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02558154024020697</v>
+      </c>
+      <c r="E67">
+        <v>0.02203189388124306</v>
+      </c>
+      <c r="F67">
+        <v>0.001751791031705799</v>
+      </c>
+      <c r="G67">
+        <v>-0.01739181358857899</v>
+      </c>
+      <c r="H67">
+        <v>-0.0323121564925993</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1522685911599843</v>
+        <v>0.17891970114929</v>
       </c>
       <c r="C68">
-        <v>-0.281883970442968</v>
+        <v>-0.2272287268928704</v>
       </c>
       <c r="D68">
-        <v>-0.02735328821745709</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.006476790198632542</v>
+      </c>
+      <c r="E68">
+        <v>0.05246247766126211</v>
+      </c>
+      <c r="F68">
+        <v>0.02658943666513997</v>
+      </c>
+      <c r="G68">
+        <v>-0.005091576584065919</v>
+      </c>
+      <c r="H68">
+        <v>-0.001081329569195587</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08818429563770167</v>
+        <v>0.08165351798176787</v>
       </c>
       <c r="C69">
-        <v>0.07793401026712528</v>
+        <v>0.09866332830553497</v>
       </c>
       <c r="D69">
-        <v>0.04563391767241225</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04596492473813253</v>
+      </c>
+      <c r="E69">
+        <v>0.03321511840673686</v>
+      </c>
+      <c r="F69">
+        <v>-0.0002343907955092745</v>
+      </c>
+      <c r="G69">
+        <v>0.05182829741224567</v>
+      </c>
+      <c r="H69">
+        <v>-0.006036367628992944</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1296260323353517</v>
+        <v>0.1674066754136645</v>
       </c>
       <c r="C71">
-        <v>-0.2591968221122741</v>
+        <v>-0.2287027966102629</v>
       </c>
       <c r="D71">
-        <v>0.03385867024786331</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03945930920487567</v>
+      </c>
+      <c r="E71">
+        <v>0.0518674311911718</v>
+      </c>
+      <c r="F71">
+        <v>0.01935134962470479</v>
+      </c>
+      <c r="G71">
+        <v>0.04146972788283017</v>
+      </c>
+      <c r="H71">
+        <v>-0.007340300843823003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09756888681202161</v>
+        <v>0.1025018933271641</v>
       </c>
       <c r="C72">
-        <v>0.04653711106533934</v>
+        <v>0.0616804494396845</v>
       </c>
       <c r="D72">
-        <v>0.07936318915774163</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.08974373653288181</v>
+      </c>
+      <c r="E72">
+        <v>-0.01638423346756695</v>
+      </c>
+      <c r="F72">
+        <v>0.02754460867445521</v>
+      </c>
+      <c r="G72">
+        <v>0.05288821757702427</v>
+      </c>
+      <c r="H72">
+        <v>-0.01736212885967628</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.3138616315135879</v>
+        <v>0.2768390325323071</v>
       </c>
       <c r="C73">
-        <v>0.0308899290544182</v>
+        <v>0.06850477755477727</v>
       </c>
       <c r="D73">
-        <v>0.1867582747773108</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1943036607394963</v>
+      </c>
+      <c r="E73">
+        <v>-0.6654117168619278</v>
+      </c>
+      <c r="F73">
+        <v>0.1037829360585463</v>
+      </c>
+      <c r="G73">
+        <v>-0.06997778351984683</v>
+      </c>
+      <c r="H73">
+        <v>0.08875561420139334</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1051100887388478</v>
+        <v>0.1056936274870739</v>
       </c>
       <c r="C74">
-        <v>0.07663902245323743</v>
+        <v>0.09156526779740869</v>
       </c>
       <c r="D74">
-        <v>0.03597396358770945</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.001640658069342461</v>
+      </c>
+      <c r="E74">
+        <v>0.07769124872313402</v>
+      </c>
+      <c r="F74">
+        <v>0.04355794810282759</v>
+      </c>
+      <c r="G74">
+        <v>0.03382158882708387</v>
+      </c>
+      <c r="H74">
+        <v>0.07645229457219181</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2512829038540201</v>
+        <v>0.246017236988246</v>
       </c>
       <c r="C75">
-        <v>0.1092304246908324</v>
+        <v>0.150582956628435</v>
       </c>
       <c r="D75">
-        <v>-0.07725514571494549</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1224424517836196</v>
+      </c>
+      <c r="E75">
+        <v>0.07281836176831359</v>
+      </c>
+      <c r="F75">
+        <v>-0.01887080350046956</v>
+      </c>
+      <c r="G75">
+        <v>0.02244809030457248</v>
+      </c>
+      <c r="H75">
+        <v>0.1702225615841292</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1201351972860454</v>
+        <v>0.1267015875400413</v>
       </c>
       <c r="C76">
-        <v>0.08478447685656772</v>
+        <v>0.1069196811830553</v>
       </c>
       <c r="D76">
-        <v>0.001373863769970429</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.02392094252248331</v>
+      </c>
+      <c r="E76">
+        <v>0.1175394890913589</v>
+      </c>
+      <c r="F76">
+        <v>0.01129718413435074</v>
+      </c>
+      <c r="G76">
+        <v>0.04995832291204792</v>
+      </c>
+      <c r="H76">
+        <v>0.04320215406696376</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.08249637227568227</v>
+        <v>0.06953899361169197</v>
       </c>
       <c r="C77">
-        <v>0.02262585577004794</v>
+        <v>0.06931844343318974</v>
       </c>
       <c r="D77">
-        <v>0.1125296986040207</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.114771415034864</v>
+      </c>
+      <c r="E77">
+        <v>0.09834642179835291</v>
+      </c>
+      <c r="F77">
+        <v>-0.2929078277773404</v>
+      </c>
+      <c r="G77">
+        <v>-0.1611669493461458</v>
+      </c>
+      <c r="H77">
+        <v>0.1036020170504931</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03619747007766121</v>
+        <v>0.04205390769995868</v>
       </c>
       <c r="C78">
-        <v>0.04215673203571362</v>
+        <v>0.06046298300834554</v>
       </c>
       <c r="D78">
-        <v>0.09041989033156088</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1186027659854012</v>
+      </c>
+      <c r="E78">
+        <v>0.03194204166994808</v>
+      </c>
+      <c r="F78">
+        <v>0.01607448815653849</v>
+      </c>
+      <c r="G78">
+        <v>0.03948365313651257</v>
+      </c>
+      <c r="H78">
+        <v>-0.02558189796944104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.00281495228626827</v>
+        <v>0.04063827169033747</v>
       </c>
       <c r="C79">
-        <v>-0.002845226570245026</v>
+        <v>0.07211470847765898</v>
       </c>
       <c r="D79">
-        <v>0.01481406332838561</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05176725474122045</v>
+      </c>
+      <c r="E79">
+        <v>0.1559139672589386</v>
+      </c>
+      <c r="F79">
+        <v>0.0734357865538731</v>
+      </c>
+      <c r="G79">
+        <v>0.3622550273772004</v>
+      </c>
+      <c r="H79">
+        <v>0.6758580498786363</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.0346250245262638</v>
+        <v>0.02776905841492483</v>
       </c>
       <c r="C80">
-        <v>0.02542695747302311</v>
+        <v>0.04060332327191711</v>
       </c>
       <c r="D80">
-        <v>0.03823542024247336</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03542518323074007</v>
+      </c>
+      <c r="E80">
+        <v>0.0119206881726136</v>
+      </c>
+      <c r="F80">
+        <v>-0.03681286572604009</v>
+      </c>
+      <c r="G80">
+        <v>-0.02761986866806686</v>
+      </c>
+      <c r="H80">
+        <v>-0.04422419666810255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1461519519926238</v>
+        <v>0.1344106680105581</v>
       </c>
       <c r="C81">
-        <v>0.08085270282083423</v>
+        <v>0.110257888083334</v>
       </c>
       <c r="D81">
-        <v>-0.03422291495682112</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07440074955001424</v>
+      </c>
+      <c r="E81">
+        <v>0.1099409533345227</v>
+      </c>
+      <c r="F81">
+        <v>0.0006321132328897827</v>
+      </c>
+      <c r="G81">
+        <v>0.03596947669048244</v>
+      </c>
+      <c r="H81">
+        <v>0.06725778819491306</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2791357847349926</v>
+        <v>0.2493122755749463</v>
       </c>
       <c r="C82">
-        <v>0.2119191384714884</v>
+        <v>0.2199051065638097</v>
       </c>
       <c r="D82">
-        <v>-0.2456965604411677</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2407031408719647</v>
+      </c>
+      <c r="E82">
+        <v>-0.007812608568437854</v>
+      </c>
+      <c r="F82">
+        <v>0.02678287106337947</v>
+      </c>
+      <c r="G82">
+        <v>0.4168676383926032</v>
+      </c>
+      <c r="H82">
+        <v>-0.3922312323789779</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.04097633785619872</v>
+        <v>0.02652735251578778</v>
       </c>
       <c r="C83">
-        <v>0.03889009763561421</v>
+        <v>0.05031679877757864</v>
       </c>
       <c r="D83">
-        <v>0.07343656961151133</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05177318202383801</v>
+      </c>
+      <c r="E83">
+        <v>0.003926906277407495</v>
+      </c>
+      <c r="F83">
+        <v>-0.02365273501817071</v>
+      </c>
+      <c r="G83">
+        <v>0.004978331640400494</v>
+      </c>
+      <c r="H83">
+        <v>-0.02920111718461493</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.000495101666722322</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.003012762572700699</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.006869732562407173</v>
+      </c>
+      <c r="E84">
+        <v>0.01143036844975667</v>
+      </c>
+      <c r="F84">
+        <v>0.00420335025819087</v>
+      </c>
+      <c r="G84">
+        <v>-0.005186380688826107</v>
+      </c>
+      <c r="H84">
+        <v>-0.007879098835774751</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1876525974090737</v>
+        <v>0.1714614309223978</v>
       </c>
       <c r="C85">
-        <v>0.08109327803558633</v>
+        <v>0.1150953598589556</v>
       </c>
       <c r="D85">
-        <v>-0.06613653546426343</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.09047739064357982</v>
+      </c>
+      <c r="E85">
+        <v>0.03916877382068238</v>
+      </c>
+      <c r="F85">
+        <v>0.02661313219076403</v>
+      </c>
+      <c r="G85">
+        <v>0.06460930687489669</v>
+      </c>
+      <c r="H85">
+        <v>0.1560286622026896</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01475796315702693</v>
+        <v>0.0204946713213045</v>
       </c>
       <c r="C86">
-        <v>0.02240677792485902</v>
+        <v>0.01759272508131162</v>
       </c>
       <c r="D86">
-        <v>0.1352081343619803</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1207404195577227</v>
+      </c>
+      <c r="E86">
+        <v>0.02578115556310342</v>
+      </c>
+      <c r="F86">
+        <v>-0.01036665170240585</v>
+      </c>
+      <c r="G86">
+        <v>0.04475575368027758</v>
+      </c>
+      <c r="H86">
+        <v>-0.06344344781176844</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03051265571593677</v>
+        <v>0.03423894001774012</v>
       </c>
       <c r="C87">
-        <v>0.008352371248335412</v>
+        <v>0.02832395240057337</v>
       </c>
       <c r="D87">
-        <v>0.1137932209981011</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1342851766061134</v>
+      </c>
+      <c r="E87">
+        <v>0.09349501260854179</v>
+      </c>
+      <c r="F87">
+        <v>-0.02788058618454303</v>
+      </c>
+      <c r="G87">
+        <v>0.007583143363552268</v>
+      </c>
+      <c r="H87">
+        <v>-0.0309558138865412</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.08727822458734133</v>
+        <v>0.07687818827264772</v>
       </c>
       <c r="C88">
-        <v>0.06757782095799547</v>
+        <v>0.0679628009804723</v>
       </c>
       <c r="D88">
-        <v>0.07310140649790435</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0433728575839844</v>
+      </c>
+      <c r="E88">
+        <v>0.04109573493773292</v>
+      </c>
+      <c r="F88">
+        <v>-0.009339483353240179</v>
+      </c>
+      <c r="G88">
+        <v>0.02567840290805398</v>
+      </c>
+      <c r="H88">
+        <v>-0.02329990523375062</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.200573392464241</v>
+        <v>0.2522692272870405</v>
       </c>
       <c r="C89">
-        <v>-0.364133893797944</v>
+        <v>-0.3569400656936614</v>
       </c>
       <c r="D89">
-        <v>-0.02178577129039542</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.004770762933810624</v>
+      </c>
+      <c r="E89">
+        <v>0.07917101169061461</v>
+      </c>
+      <c r="F89">
+        <v>-0.04553787757203475</v>
+      </c>
+      <c r="G89">
+        <v>0.0365703817864871</v>
+      </c>
+      <c r="H89">
+        <v>-0.03395545361381118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1916926726431122</v>
+        <v>0.2262059605989405</v>
       </c>
       <c r="C90">
-        <v>-0.3014397279776095</v>
+        <v>-0.2739537659416207</v>
       </c>
       <c r="D90">
-        <v>-0.01506131845356179</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01864988182228589</v>
+      </c>
+      <c r="E90">
+        <v>0.05494609930419399</v>
+      </c>
+      <c r="F90">
+        <v>0.0003408676471868485</v>
+      </c>
+      <c r="G90">
+        <v>-0.009370732825117446</v>
+      </c>
+      <c r="H90">
+        <v>-0.06544113953297682</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1862314885761397</v>
+        <v>0.1746515504010202</v>
       </c>
       <c r="C91">
-        <v>0.1425229174517357</v>
+        <v>0.1607741845316289</v>
       </c>
       <c r="D91">
-        <v>-0.04390613711259028</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08453441521618174</v>
+      </c>
+      <c r="E91">
+        <v>0.09450015138247279</v>
+      </c>
+      <c r="F91">
+        <v>0.01824622746573197</v>
+      </c>
+      <c r="G91">
+        <v>0.02883615057330533</v>
+      </c>
+      <c r="H91">
+        <v>0.1585159806374778</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1676624457800267</v>
+        <v>0.2037983526482622</v>
       </c>
       <c r="C92">
-        <v>-0.288560756421845</v>
+        <v>-0.2860738618424429</v>
       </c>
       <c r="D92">
-        <v>0.04737976686800605</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.01982931941167852</v>
+      </c>
+      <c r="E92">
+        <v>0.06494200555323307</v>
+      </c>
+      <c r="F92">
+        <v>-0.04536462826631146</v>
+      </c>
+      <c r="G92">
+        <v>0.01922702155897134</v>
+      </c>
+      <c r="H92">
+        <v>-0.01601005572464771</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.21624945521914</v>
+        <v>0.2473417988611494</v>
       </c>
       <c r="C93">
-        <v>-0.3242927815703055</v>
+        <v>-0.2910064173185372</v>
       </c>
       <c r="D93">
-        <v>0.003021559447359371</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.001258654602882416</v>
+      </c>
+      <c r="E93">
+        <v>0.03573511523776007</v>
+      </c>
+      <c r="F93">
+        <v>0.0316250727181718</v>
+      </c>
+      <c r="G93">
+        <v>0.0223261251976078</v>
+      </c>
+      <c r="H93">
+        <v>-0.01243765686432013</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3954331279359608</v>
+        <v>0.3447622045595544</v>
       </c>
       <c r="C94">
-        <v>0.2335169556845818</v>
+        <v>0.2371757324718217</v>
       </c>
       <c r="D94">
-        <v>-0.4489069845690943</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4371850383399585</v>
+      </c>
+      <c r="E94">
+        <v>0.132593035768378</v>
+      </c>
+      <c r="F94">
+        <v>-0.02409797832969783</v>
+      </c>
+      <c r="G94">
+        <v>-0.5872142349241003</v>
+      </c>
+      <c r="H94">
+        <v>-0.1510025083186906</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.09795261637223829</v>
+        <v>0.07500219568658688</v>
       </c>
       <c r="C95">
-        <v>0.001716155055260744</v>
+        <v>0.04968193319082598</v>
       </c>
       <c r="D95">
-        <v>0.0719344241113425</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.07630360971534632</v>
+      </c>
+      <c r="E95">
+        <v>-0.1257791823882217</v>
+      </c>
+      <c r="F95">
+        <v>-0.9065204402126317</v>
+      </c>
+      <c r="G95">
+        <v>0.03770575134570536</v>
+      </c>
+      <c r="H95">
+        <v>0.08392901575970216</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1745471151573397</v>
+        <v>0.1701840208623486</v>
       </c>
       <c r="C98">
-        <v>0.0337071000713784</v>
+        <v>0.05730893611672552</v>
       </c>
       <c r="D98">
-        <v>0.1208914078691213</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1349867090081976</v>
+      </c>
+      <c r="E98">
+        <v>-0.285857878215349</v>
+      </c>
+      <c r="F98">
+        <v>0.09388730511782824</v>
+      </c>
+      <c r="G98">
+        <v>0.008449706972126195</v>
+      </c>
+      <c r="H98">
+        <v>0.01913238317806526</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.006212865656928928</v>
+        <v>0.007331550856747646</v>
       </c>
       <c r="C101">
-        <v>0.01680762643501696</v>
+        <v>0.0220523569690785</v>
       </c>
       <c r="D101">
-        <v>0.06533688743214482</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.07832118838444452</v>
+      </c>
+      <c r="E101">
+        <v>0.05029716475118096</v>
+      </c>
+      <c r="F101">
+        <v>-0.0005545019159674029</v>
+      </c>
+      <c r="G101">
+        <v>0.04233740871142083</v>
+      </c>
+      <c r="H101">
+        <v>-0.07287955385853867</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1299834992169211</v>
+        <v>0.1175655646869457</v>
       </c>
       <c r="C102">
-        <v>0.08736733303056017</v>
+        <v>0.1128649589021945</v>
       </c>
       <c r="D102">
-        <v>-0.03516874696743618</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05536071115908598</v>
+      </c>
+      <c r="E102">
+        <v>0.02722101065496053</v>
+      </c>
+      <c r="F102">
+        <v>-0.01960191553530975</v>
+      </c>
+      <c r="G102">
+        <v>0.04739536922584946</v>
+      </c>
+      <c r="H102">
+        <v>0.01532889553298006</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
